--- a/output/GIN.xlsx
+++ b/output/GIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57.17483314</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57.17483314</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1812.61</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.68504772</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.68504772</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6615734</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6615734</v>
+      </c>
+      <c r="L2" t="n">
+        <v>73.27851706141089</v>
+      </c>
+      <c r="M2" t="n">
+        <v>73.27851706141089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.19925118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57.19925118</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1758.68</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.180392157</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.180392157</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6832195</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6832195</v>
+      </c>
+      <c r="L3" t="n">
+        <v>72.95034278081791</v>
+      </c>
+      <c r="M3" t="n">
+        <v>72.95034278081791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>47.61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.18704216</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57.18704216</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1827.99</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.566139468</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.566139468</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7046097</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7046097</v>
+      </c>
+      <c r="L4" t="n">
+        <v>72.8442037896923</v>
+      </c>
+      <c r="M4" t="n">
+        <v>72.8442037896923</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.17076347</v>
+      </c>
+      <c r="F5" t="n">
+        <v>57.17076347</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1812.76</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.450326323</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.450326323</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7262112</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7262112</v>
+      </c>
+      <c r="L5" t="n">
+        <v>72.7892914943355</v>
+      </c>
+      <c r="M5" t="n">
+        <v>72.7892914943355</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>50.46</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.07309132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57.07309132</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1844.33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.86759327</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.86759327</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7468347</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7468347</v>
+      </c>
+      <c r="L6" t="n">
+        <v>72.7277271979881</v>
+      </c>
+      <c r="M6" t="n">
+        <v>72.7277271979881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>57.11785772</v>
+      </c>
+      <c r="F7" t="n">
+        <v>57.11785772</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1821.18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.553564899</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.553564899</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7683115</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7683115</v>
+      </c>
+      <c r="L7" t="n">
+        <v>72.54000935678199</v>
+      </c>
+      <c r="M7" t="n">
+        <v>72.54000935678199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.1219274</v>
+      </c>
+      <c r="F8" t="n">
+        <v>57.1219274</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1780.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.656432749</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.656432749</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7842806</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7842806</v>
+      </c>
+      <c r="L8" t="n">
+        <v>72.2311621308459</v>
+      </c>
+      <c r="M8" t="n">
+        <v>72.2311621308459</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.24808725</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57.24808725</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1791.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.199853855</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.199853855</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7992545</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7992545</v>
+      </c>
+      <c r="L9" t="n">
+        <v>71.8158578145418</v>
+      </c>
+      <c r="M9" t="n">
+        <v>71.8158578145418</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>56.54</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.29285365</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57.29285365</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1823.78</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.168736304</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.168736304</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8174897</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8174897</v>
+      </c>
+      <c r="L10" t="n">
+        <v>71.656238156605</v>
+      </c>
+      <c r="M10" t="n">
+        <v>71.656238156605</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.29692333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>57.29692333</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1816.89</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.168309602</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.168309602</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8336967</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8336967</v>
+      </c>
+      <c r="L11" t="n">
+        <v>71.3487315356894</v>
+      </c>
+      <c r="M11" t="n">
+        <v>71.3487315356894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.300993</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57.300993</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1793.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.167883212</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.167883212</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8445717</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8445717</v>
+      </c>
+      <c r="L12" t="n">
+        <v>70.7994168624072</v>
+      </c>
+      <c r="M12" t="n">
+        <v>70.7994168624072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>61.9</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57.3457594</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57.3457594</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1815.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.875592849</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.875592849</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8577790</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8577790</v>
+      </c>
+      <c r="L13" t="n">
+        <v>70.450421333069</v>
+      </c>
+      <c r="M13" t="n">
+        <v>70.450421333069</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57.43122253</v>
+      </c>
+      <c r="F14" t="n">
+        <v>57.43122253</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1788.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.716630197</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.716630197</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8772254</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8772254</v>
+      </c>
+      <c r="L14" t="n">
+        <v>69.2996596750027</v>
+      </c>
+      <c r="M14" t="n">
+        <v>69.2996596750027</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="E15" t="n">
+        <v>57.47598893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>57.47598893</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1772.36</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.957710536</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.957710536</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8961039</v>
+      </c>
+      <c r="K15" t="n">
+        <v>8961039</v>
+      </c>
+      <c r="L15" t="n">
+        <v>69.0860439494155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>69.0860439494155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>69.98</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E16" t="n">
+        <v>57.46784958</v>
+      </c>
+      <c r="F16" t="n">
+        <v>57.46784958</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1806.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.919737322</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.919737322</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9140114</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9140114</v>
+      </c>
+      <c r="L16" t="n">
+        <v>68.78127208970329</v>
+      </c>
+      <c r="M16" t="n">
+        <v>68.78127208970329</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.50447664</v>
+      </c>
+      <c r="F17" t="n">
+        <v>57.50447664</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1835.95</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.883636364</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.883636364</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9330625</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9330625</v>
+      </c>
+      <c r="L17" t="n">
+        <v>68.68281794974951</v>
+      </c>
+      <c r="M17" t="n">
+        <v>68.68281794974951</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57.70796028</v>
+      </c>
+      <c r="F18" t="n">
+        <v>57.70796028</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1815.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.213571429</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.213571429</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9547082</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9547082</v>
+      </c>
+      <c r="L18" t="n">
+        <v>67.8985062598784</v>
+      </c>
+      <c r="M18" t="n">
+        <v>67.8985062598784</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="E19" t="n">
+        <v>57.95214065</v>
+      </c>
+      <c r="F19" t="n">
+        <v>57.95214065</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1847.86</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.29754386</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.29754386</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9779785</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9779785</v>
+      </c>
+      <c r="L19" t="n">
+        <v>67.56441813124989</v>
+      </c>
+      <c r="M19" t="n">
+        <v>67.56441813124989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>57.99283738</v>
+      </c>
+      <c r="F20" t="n">
+        <v>57.99283738</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1794.26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.634035088</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.634035088</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10021323</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10021323</v>
+      </c>
+      <c r="L20" t="n">
+        <v>67.3491037802489</v>
+      </c>
+      <c r="M20" t="n">
+        <v>67.3491037802489</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="E21" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="F21" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1783.86</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.932758621</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.932758621</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10270728</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10270728</v>
+      </c>
+      <c r="L21" t="n">
+        <v>66.8626553753769</v>
+      </c>
+      <c r="M21" t="n">
+        <v>66.8626553753769</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="F22" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1811.98</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.583103448</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.583103448</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10527712</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10527712</v>
+      </c>
+      <c r="L22" t="n">
+        <v>66.07016923617989</v>
+      </c>
+      <c r="M22" t="n">
+        <v>66.07016923617989</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="E23" t="n">
+        <v>58.6032883</v>
+      </c>
+      <c r="F23" t="n">
+        <v>58.6032883</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1873.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.931833333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.931833333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10788692</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10788692</v>
+      </c>
+      <c r="L23" t="n">
+        <v>65.5016367490893</v>
+      </c>
+      <c r="M23" t="n">
+        <v>65.5016367490893</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="E24" t="n">
+        <v>59.01025558</v>
+      </c>
+      <c r="F24" t="n">
+        <v>59.01025558</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1825.54</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.868067742</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.868067742</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11055430</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11055430</v>
+      </c>
+      <c r="L24" t="n">
+        <v>64.7594306476819</v>
+      </c>
+      <c r="M24" t="n">
+        <v>64.7594306476819</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>95.56</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>26.72</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>59.14455478</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>59.14455478</v>
+      </c>
+      <c r="G25" t="n">
         <v>1800.89</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>1.023087097</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>1.023087097</v>
+      </c>
+      <c r="J25" t="n">
         <v>11333365</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>11333365</v>
+      </c>
+      <c r="L25" t="n">
+        <v>64.28432870734061</v>
+      </c>
+      <c r="M25" t="n">
         <v>64.28432870734061</v>
       </c>
     </row>

--- a/output/GIN.xlsx
+++ b/output/GIN.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>95.56</v>
       </c>
       <c r="D2" t="n">
-        <v>59.14455478</v>
+        <v>145330.000005416</v>
       </c>
       <c r="E2" t="n">
         <v>1651</v>
@@ -516,7 +516,7 @@
         <v>100.14</v>
       </c>
       <c r="D3" t="n">
-        <v>59.19339085</v>
+        <v>145449.99999662</v>
       </c>
       <c r="E3" t="n">
         <v>1651</v>
@@ -544,7 +544,7 @@
         <v>104.3</v>
       </c>
       <c r="D4" t="n">
-        <v>59.27478431</v>
+        <v>145650.000006532</v>
       </c>
       <c r="E4" t="n">
         <v>1651</v>
@@ -572,7 +572,7 @@
         <v>110.06</v>
       </c>
       <c r="D5" t="n">
-        <v>59.39687449</v>
+        <v>145949.999996828</v>
       </c>
       <c r="E5" t="n">
         <v>1651</v>
@@ -600,7 +600,7 @@
         <v>115.09</v>
       </c>
       <c r="D6" t="n">
-        <v>59.50675566</v>
+        <v>146220.000007752</v>
       </c>
       <c r="E6" t="n">
         <v>1651</v>
@@ -628,7 +628,7 @@
         <v>124.24</v>
       </c>
       <c r="D7" t="n">
-        <v>59.53931304</v>
+        <v>146300.000001888</v>
       </c>
       <c r="E7" t="n">
         <v>1651</v>
@@ -656,7 +656,7 @@
         <v>136.83</v>
       </c>
       <c r="D8" t="n">
-        <v>59.5596614</v>
+        <v>146349.99999208</v>
       </c>
       <c r="E8" t="n">
         <v>1651</v>
@@ -684,7 +684,7 @@
         <v>143.63</v>
       </c>
       <c r="D9" t="n">
-        <v>59.57187042</v>
+        <v>146379.999996024</v>
       </c>
       <c r="E9" t="n">
         <v>1651</v>

--- a/output/GIN.xlsx
+++ b/output/GIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>95.56</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>145330.000005416</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.023087097</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11333365</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64.28432870734061</v>
-      </c>
+        <v>25.87</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100.14</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>145449.99999662</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.912825806</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11625998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>63.49849630949</v>
-      </c>
+        <v>25.99</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>104.3</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>145650.000006532</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.757741935</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11930985</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62.7356629716857</v>
-      </c>
+        <v>25.85</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>110.06</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>145949.999996828</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8.512222581</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12240789</v>
-      </c>
-      <c r="H5" t="n">
-        <v>62.127292467437</v>
-      </c>
+        <v>25.93</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>115.09</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>146220.000007752</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.857345161</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12554864</v>
-      </c>
-      <c r="H6" t="n">
-        <v>61.3955358106945</v>
-      </c>
+        <v>25.99</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>124.24</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>146300.000001888</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.857345161</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12877539</v>
-      </c>
-      <c r="H7" t="n">
-        <v>60.9817962744553</v>
-      </c>
+        <v>25.87</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>136.83</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>146349.99999208</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.857345161</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13205153</v>
-      </c>
-      <c r="H8" t="n">
-        <v>61.215265730538</v>
-      </c>
+        <v>25.87</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4111 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>26</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3516814</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>3520000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3578631</v>
+      </c>
+      <c r="I13" t="n">
+        <v>500</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="M13" t="n">
+        <v>500</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R13" t="n">
+        <v>59.49861631</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.480113636</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>3519000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3642324</v>
+      </c>
+      <c r="I14" t="n">
+        <v>500</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-0.163</v>
+      </c>
+      <c r="M14" t="n">
+        <v>500</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R14" t="n">
+        <v>59.49454664</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>-0.163</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.483091787</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3495000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3707945</v>
+      </c>
+      <c r="I15" t="n">
+        <v>500</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>500</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R15" t="n">
+        <v>59.39687449</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.543633763</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>3471000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3775510</v>
+      </c>
+      <c r="I16" t="n">
+        <v>500</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-0.206</v>
+      </c>
+      <c r="M16" t="n">
+        <v>800</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R16" t="n">
+        <v>59.29920234</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>-0.206</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.893114376</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3448000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3845074</v>
+      </c>
+      <c r="I17" t="n">
+        <v>500</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>500</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R17" t="n">
+        <v>59.20559987</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.132</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8700696060000001</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>3424000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3916780</v>
+      </c>
+      <c r="I18" t="n">
+        <v>500</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R18" t="n">
+        <v>59.10792772</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.022196262</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3990760</v>
+      </c>
+      <c r="I19" t="n">
+        <v>500</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>-0.244</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R19" t="n">
+        <v>59.01025558</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>-0.244</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.029411765</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>3376000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4067333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>500</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.179</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R20" t="n">
+        <v>58.91258343</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>-0.179</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.740521327</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>3352000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4145194</v>
+      </c>
+      <c r="I21" t="n">
+        <v>500</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R21" t="n">
+        <v>58.81491128</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.745823389</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>3329000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4222374</v>
+      </c>
+      <c r="I22" t="n">
+        <v>500</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R22" t="n">
+        <v>58.72130881</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.901171523</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>3305000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4298087</v>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R23" t="n">
+        <v>58.62363666</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.877458396</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>3281000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4372212</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R24" t="n">
+        <v>58.52596451</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.853398354</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>3257000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4445207</v>
+      </c>
+      <c r="I25" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="M25" t="n">
+        <v>800</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R25" t="n">
+        <v>58.42829237</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.30703101</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>3234000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4517073</v>
+      </c>
+      <c r="I26" t="n">
+        <v>450</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="M26" t="n">
+        <v>650</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R26" t="n">
+        <v>58.33468989</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.56524428</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>3210000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4588006</v>
+      </c>
+      <c r="I27" t="n">
+        <v>400</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>600</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R27" t="n">
+        <v>58.27771447</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.234</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.46728972</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>3186000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4658743</v>
+      </c>
+      <c r="I28" t="n">
+        <v>300</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>600</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R28" t="n">
+        <v>58.18004232</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.408035154</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3162000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4730375</v>
+      </c>
+      <c r="I29" t="n">
+        <v>500</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>200</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R29" t="n">
+        <v>58.08237018</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.253004428</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>3138000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4804926</v>
+      </c>
+      <c r="I30" t="n">
+        <v>600</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>200</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R30" t="n">
+        <v>57.98469803</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.318674315</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>3115000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4885199</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R31" t="n">
+        <v>57.97248901</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.706260032</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3091000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4972609</v>
+      </c>
+      <c r="I32" t="n">
+        <v>27</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M32" t="n">
+        <v>42</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R32" t="n">
+        <v>57.87481686</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.090585571</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>32.63</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>3067000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5067427</v>
+      </c>
+      <c r="I33" t="n">
+        <v>120</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="M33" t="n">
+        <v>447</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R33" t="n">
+        <v>57.77714472</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.266384089</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>26.06</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>3043000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5170731</v>
+      </c>
+      <c r="I34" t="n">
+        <v>102</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>617</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R34" t="n">
+        <v>57.67947257</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.278015117</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>3019000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5282274</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R35" t="n">
+        <v>57.62249715</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>35.25</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>26.01</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2996000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5402084</v>
+      </c>
+      <c r="I36" t="n">
+        <v>51</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>87</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R36" t="n">
+        <v>57.52889468</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.06575433899999999</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2972000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5531661</v>
+      </c>
+      <c r="I37" t="n">
+        <v>126</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="M37" t="n">
+        <v>172</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R37" t="n">
+        <v>57.47191926</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.121130552</v>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>2948000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5671380</v>
+      </c>
+      <c r="I38" t="n">
+        <v>225</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="M38" t="n">
+        <v>280</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R38" t="n">
+        <v>57.37424711</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.221166893</v>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>36.41</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2924000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5820774</v>
+      </c>
+      <c r="I39" t="n">
+        <v>300</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M39" t="n">
+        <v>300</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R39" t="n">
+        <v>57.27657496</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.307797538</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W39" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>37.69</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2901000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5977175</v>
+      </c>
+      <c r="I40" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="M40" t="n">
+        <v>261</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R40" t="n">
+        <v>57.30506267</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.217511203</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7275384620000001</v>
+      </c>
+      <c r="W40" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2877000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6136166</v>
+      </c>
+      <c r="I41" t="n">
+        <v>100</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="M41" t="n">
+        <v>391</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R41" t="n">
+        <v>57.20739053</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.28362878</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.715076923</v>
+      </c>
+      <c r="W41" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>26.26</v>
+      </c>
+      <c r="E42" t="n">
+        <v>48.85569722</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2853000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6354145</v>
+      </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="M42" t="n">
+        <v>731</v>
+      </c>
+      <c r="N42" t="n">
+        <v>67.8396</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R42" t="n">
+        <v>57.54924304</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.406940063</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.702615385</v>
+      </c>
+      <c r="W42" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>47.45983232</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2829000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6615734</v>
+      </c>
+      <c r="I43" t="n">
+        <v>131</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>73.27851706141089</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1366</v>
+      </c>
+      <c r="N43" t="n">
+        <v>82.4147</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R43" t="n">
+        <v>57.17483314</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.68504772</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.690153846</v>
+      </c>
+      <c r="W43" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>46.38</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E44" t="n">
+        <v>46.27682835</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2805000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6832195</v>
+      </c>
+      <c r="I44" t="n">
+        <v>101</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>72.95034278081791</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>265</v>
+      </c>
+      <c r="N44" t="n">
+        <v>57.9237</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R44" t="n">
+        <v>57.19925118</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.180392157</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.677692308</v>
+      </c>
+      <c r="W44" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>47.61</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="E45" t="n">
+        <v>45.36259902</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2782000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>27.97</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7046097</v>
+      </c>
+      <c r="I45" t="n">
+        <v>278</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>72.8442037896923</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1059</v>
+      </c>
+      <c r="N45" t="n">
+        <v>46.5768</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R45" t="n">
+        <v>57.18704216</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.566139468</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.665230769</v>
+      </c>
+      <c r="W45" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>49.96</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="E46" t="n">
+        <v>44.77305805</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2758000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7262112</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>72.7892914943355</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2300</v>
+      </c>
+      <c r="N46" t="n">
+        <v>54.8854</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R46" t="n">
+        <v>57.17076347</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.450326323</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.6527692309999999</v>
+      </c>
+      <c r="W46" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>50.46</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="E47" t="n">
+        <v>44.56411912</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2734000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>35.87</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7468347</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1413</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>72.7277271979881</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2817</v>
+      </c>
+      <c r="N47" t="n">
+        <v>48.6612</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R47" t="n">
+        <v>57.07309132</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.86759327</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.640307692</v>
+      </c>
+      <c r="W47" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>26.13</v>
+      </c>
+      <c r="E48" t="n">
+        <v>44.76837665</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2735000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7683115</v>
+      </c>
+      <c r="I48" t="n">
+        <v>956</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>72.54000935678199</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2449</v>
+      </c>
+      <c r="N48" t="n">
+        <v>65.67019999999999</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R48" t="n">
+        <v>57.11785772</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.553564899</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.627846154</v>
+      </c>
+      <c r="W48" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>45.25546478</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2736000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>39.19</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7842806</v>
+      </c>
+      <c r="I49" t="n">
+        <v>607</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>72.2311621308459</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="M49" t="n">
+        <v>680</v>
+      </c>
+      <c r="N49" t="n">
+        <v>69.9828</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R49" t="n">
+        <v>57.1219274</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.656432749</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.615384615</v>
+      </c>
+      <c r="W49" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="E50" t="n">
+        <v>45.83685682</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2737000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7992545</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1416</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>71.8158578145418</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1120</v>
+      </c>
+      <c r="N50" t="n">
+        <v>37.8249</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R50" t="n">
+        <v>57.24808725</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.199853855</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.602923077</v>
+      </c>
+      <c r="W50" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>56.54</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>26.32</v>
+      </c>
+      <c r="E51" t="n">
+        <v>46.3240261</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2738000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>43.05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8174897</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>71.656238156605</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>33.4191</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R51" t="n">
+        <v>57.29285365</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.168736304</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.590461539</v>
+      </c>
+      <c r="W51" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>46.52844592</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2739000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>44.22</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8336967</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J52" t="n">
+        <v>40.66534</v>
+      </c>
+      <c r="K52" t="n">
+        <v>71.3487315356894</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N52" t="n">
+        <v>33.9224</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R52" t="n">
+        <v>57.29692333</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.168309602</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="W52" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="E53" t="n">
+        <v>46.2915149</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2740000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>45.14</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8445717</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>70.7994168624072</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N53" t="n">
+        <v>33.2221</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R53" t="n">
+        <v>57.300993</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.167883212</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="W53" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>61.9</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E54" t="n">
+        <v>45.71955326</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2741000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8577790</v>
+      </c>
+      <c r="I54" t="n">
+        <v>310</v>
+      </c>
+      <c r="J54" t="n">
+        <v>41.49952</v>
+      </c>
+      <c r="K54" t="n">
+        <v>70.450421333069</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1794</v>
+      </c>
+      <c r="N54" t="n">
+        <v>35.4386</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R54" t="n">
+        <v>57.3457594</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.875592849</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.56125</v>
+      </c>
+      <c r="W54" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>45.02141677</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2742000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>49.34</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8772254</v>
+      </c>
+      <c r="I55" t="n">
+        <v>207</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>69.2996596750027</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1663</v>
+      </c>
+      <c r="N55" t="n">
+        <v>47.0457</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R55" t="n">
+        <v>57.43122253</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.716630197</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.5655</v>
+      </c>
+      <c r="W55" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>67.28</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="E56" t="n">
+        <v>44.40596116</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2743000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8961039</v>
+      </c>
+      <c r="I56" t="n">
+        <v>408</v>
+      </c>
+      <c r="J56" t="n">
+        <v>42.3337</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69.0860439494155</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1674</v>
+      </c>
+      <c r="N56" t="n">
+        <v>36.6374</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R56" t="n">
+        <v>57.47598893</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.957710536</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.56975</v>
+      </c>
+      <c r="W56" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>69.98</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>26.46</v>
+      </c>
+      <c r="E57" t="n">
+        <v>44.0820422</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2741000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9140114</v>
+      </c>
+      <c r="I57" t="n">
+        <v>101</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>68.78127208970329</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1970</v>
+      </c>
+      <c r="N57" t="n">
+        <v>26.6392</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R57" t="n">
+        <v>57.46784958</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.919737322</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="W57" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>71.81</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="E58" t="n">
+        <v>43.98174361</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>59.46</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9330625</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>43.16788</v>
+      </c>
+      <c r="K58" t="n">
+        <v>68.68281794974951</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1978</v>
+      </c>
+      <c r="N58" t="n">
+        <v>26.1841</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R58" t="n">
+        <v>57.50447664</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.883636364</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.598307692</v>
+      </c>
+      <c r="W58" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E59" t="n">
+        <v>43.90491347</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>62.58</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9547082</v>
+      </c>
+      <c r="I59" t="n">
+        <v>111</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>67.8985062598784</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3178</v>
+      </c>
+      <c r="N59" t="n">
+        <v>25.5669</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R59" t="n">
+        <v>57.70796028</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.213571429</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.622615385</v>
+      </c>
+      <c r="W59" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>26.48</v>
+      </c>
+      <c r="E60" t="n">
+        <v>43.86205404</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9779785</v>
+      </c>
+      <c r="I60" t="n">
+        <v>446</v>
+      </c>
+      <c r="J60" t="n">
+        <v>44.00206</v>
+      </c>
+      <c r="K60" t="n">
+        <v>67.56441813124989</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2795</v>
+      </c>
+      <c r="N60" t="n">
+        <v>30.9649</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R60" t="n">
+        <v>57.95214065</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.29754386</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.646923077</v>
+      </c>
+      <c r="W60" t="n">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>43.86366754</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>69.92</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10021323</v>
+      </c>
+      <c r="I61" t="n">
+        <v>423</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>67.3491037802489</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1259</v>
+      </c>
+      <c r="N61" t="n">
+        <v>40.1264</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R61" t="n">
+        <v>57.99283738</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.634035088</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.671230769</v>
+      </c>
+      <c r="W61" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43.92025622</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10270728</v>
+      </c>
+      <c r="I62" t="n">
+        <v>99</v>
+      </c>
+      <c r="J62" t="n">
+        <v>44.83624</v>
+      </c>
+      <c r="K62" t="n">
+        <v>66.8626553753769</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2528</v>
+      </c>
+      <c r="N62" t="n">
+        <v>33.4387</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R62" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.932758621</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.695538462</v>
+      </c>
+      <c r="W62" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>45.73554951</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>83.59</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10527712</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2692</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>66.07016923617989</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5098</v>
+      </c>
+      <c r="N63" t="n">
+        <v>27.3875</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R63" t="n">
+        <v>58.19632102</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.583103448</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.719846154</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="E64" t="n">
+        <v>47.84514747</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10788692</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1673.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>45.67042</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65.5016367490893</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5378.76</v>
+      </c>
+      <c r="N64" t="n">
+        <v>25.4627</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R64" t="n">
+        <v>58.6032883</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.931833333</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.744153846</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1743.64</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="E65" t="n">
+        <v>37.44481107</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>92.94</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11055430</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3084.96</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>64.7594306476819</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2723.09</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10.3939</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R65" t="n">
+        <v>59.01025558</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.868067742</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.768461539</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3082.96</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="E66" t="n">
+        <v>39.84963663</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11333365</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>46.5046</v>
+      </c>
+      <c r="K66" t="n">
+        <v>64.28432870734061</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2920.57</v>
+      </c>
+      <c r="N66" t="n">
+        <v>20.5628</v>
+      </c>
+      <c r="O66" t="n">
+        <v>145330.000005416</v>
+      </c>
+      <c r="P66" t="n">
+        <v>7285577.610202692</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R66" t="n">
+        <v>59.14455478</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.023087097</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.792769231</v>
+      </c>
+      <c r="W66" t="n">
+        <v>241.62</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>54.27766809</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>99.02</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11625998</v>
+      </c>
+      <c r="I67" t="n">
+        <v>208.69</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>63.49849630949</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2412.19</v>
+      </c>
+      <c r="N67" t="n">
+        <v>29.0289</v>
+      </c>
+      <c r="O67" t="n">
+        <v>145449.99999662</v>
+      </c>
+      <c r="P67" t="n">
+        <v>7382333.910971382</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R67" t="n">
+        <v>59.19339085</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.318</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.912825806</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.817076923</v>
+      </c>
+      <c r="W67" t="n">
+        <v>208.88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>104.3</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>49.6336311</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>105.13</v>
+      </c>
+      <c r="H68" t="n">
+        <v>11930985</v>
+      </c>
+      <c r="I68" t="n">
+        <v>80</v>
+      </c>
+      <c r="J68" t="n">
+        <v>47.33878</v>
+      </c>
+      <c r="K68" t="n">
+        <v>62.7356629716857</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2229</v>
+      </c>
+      <c r="N68" t="n">
+        <v>42.2058</v>
+      </c>
+      <c r="O68" t="n">
+        <v>145650.000006532</v>
+      </c>
+      <c r="P68" t="n">
+        <v>7484982.538802374</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R68" t="n">
+        <v>59.27478431</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.757741935</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.8413846149999999</v>
+      </c>
+      <c r="W68" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>110.06</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>49.7395461</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>111.59</v>
+      </c>
+      <c r="H69" t="n">
+        <v>12240789</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6974.04</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>62.127292467437</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="M69" t="n">
+        <v>13047.26</v>
+      </c>
+      <c r="N69" t="n">
+        <v>53.4121</v>
+      </c>
+      <c r="O69" t="n">
+        <v>145949.999996828</v>
+      </c>
+      <c r="P69" t="n">
+        <v>7604870.782351857</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R69" t="n">
+        <v>59.39687449</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="U69" t="n">
+        <v>8.512222581</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.865692308</v>
+      </c>
+      <c r="W69" t="n">
+        <v>6366.59</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>115.09</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>48.41239674</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>114.99</v>
+      </c>
+      <c r="H70" t="n">
+        <v>12554864</v>
+      </c>
+      <c r="I70" t="n">
+        <v>7958.25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>48.17296</v>
+      </c>
+      <c r="K70" t="n">
+        <v>61.3955358106945</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>7055.31</v>
+      </c>
+      <c r="N70" t="n">
+        <v>91.0625</v>
+      </c>
+      <c r="O70" t="n">
+        <v>146220.000007752</v>
+      </c>
+      <c r="P70" t="n">
+        <v>7708126.023103992</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R70" t="n">
+        <v>59.50675566</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U70" t="n">
+        <v>6.857345161</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W70" t="n">
+        <v>6244.21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>124.24</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>42.87810689</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>120.96</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12877539</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7958.25</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>60.9817962744553</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="M71" t="n">
+        <v>7055.31</v>
+      </c>
+      <c r="N71" t="n">
+        <v>81.07380000000001</v>
+      </c>
+      <c r="O71" t="n">
+        <v>146300.000001888</v>
+      </c>
+      <c r="P71" t="n">
+        <v>7852954.598143529</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R71" t="n">
+        <v>59.53931304</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="U71" t="n">
+        <v>6.857345161</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W71" t="n">
+        <v>6244.21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>136.83</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>43.76744501</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>96.91</v>
+      </c>
+      <c r="H72" t="n">
+        <v>13205153</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7958.25</v>
+      </c>
+      <c r="J72" t="n">
+        <v>49.00714</v>
+      </c>
+      <c r="K72" t="n">
+        <v>61.215265730538</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M72" t="n">
+        <v>7055.31</v>
+      </c>
+      <c r="N72" t="n">
+        <v>97.9097</v>
+      </c>
+      <c r="O72" t="n">
+        <v>146349.99999208</v>
+      </c>
+      <c r="P72" t="n">
+        <v>8083569.499074111</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R72" t="n">
+        <v>59.5596614</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U72" t="n">
+        <v>6.857345161</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W72" t="n">
+        <v>6244.21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>143.63</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>143.63</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>102.32</v>
+      </c>
+      <c r="H73" t="n">
+        <v>13531906</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7958.25</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>60.8798312109561</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="M73" t="n">
+        <v>7055.31</v>
+      </c>
+      <c r="N73" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="O73" t="n">
         <v>146379.999996024</v>
       </c>
-      <c r="E9" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>8238201.532425242</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>245720</v>
+      </c>
+      <c r="R73" t="n">
+        <v>59.57187042</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="U73" t="n">
         <v>6.857345161</v>
       </c>
-      <c r="G9" t="n">
-        <v>13531906</v>
-      </c>
-      <c r="H9" t="n">
-        <v>60.8798312109561</v>
-      </c>
+      <c r="V73" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W73" t="n">
+        <v>6244.21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>150.02</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>108.73</v>
+      </c>
+      <c r="H74" t="n">
+        <v>13859341</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5358.21</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>60.3369221962174</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="M74" t="n">
+        <v>17832.13</v>
+      </c>
+      <c r="N74" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>5391.78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>14190612</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
